--- a/Results/case3/0.8.xlsx
+++ b/Results/case3/0.8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\桌面\1118MDP\Results_new\case3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_CB60806AC66EBE4EE72564B74F5DCE3A67455B90" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{39452ACB-DC77-4B3A-ADF7-D74CA2AF5EA0}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_CB60806AC66EBE4EE72564B74F5DCE3A67455B90" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{118104CD-AA7A-4A50-9A8B-9647178857FB}"/>
   <bookViews>
-    <workbookView xWindow="27750" yWindow="2775" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -329,31 +329,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.95579999999999998</c:v>
+                  <c:v>0.9698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97170000000000001</c:v>
+                  <c:v>0.97719999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97260000000000002</c:v>
+                  <c:v>0.98129999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97150000000000003</c:v>
+                  <c:v>0.98109999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97219999999999995</c:v>
+                  <c:v>0.97950000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97219999999999995</c:v>
+                  <c:v>0.97970000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97250000000000003</c:v>
+                  <c:v>0.97850000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97119999999999995</c:v>
+                  <c:v>0.97850000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97699999999999998</c:v>
+                  <c:v>0.97850000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection sqref="A1:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1753,58 +1753,58 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.95450000000000002</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="C2">
-        <v>0.4491</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="D2">
-        <v>0.97170000000000001</v>
+        <v>0.97719999999999996</v>
       </c>
       <c r="E2">
-        <v>0.40210000000000001</v>
+        <v>0.4042</v>
       </c>
       <c r="F2">
-        <v>0.97170000000000001</v>
+        <v>0.97670000000000001</v>
       </c>
       <c r="G2">
-        <v>0.40089999999999998</v>
+        <v>0.4037</v>
       </c>
       <c r="H2">
-        <v>0.97150000000000003</v>
+        <v>0.9768</v>
       </c>
       <c r="I2">
-        <v>0.40200000000000002</v>
+        <v>0.4042</v>
       </c>
       <c r="J2">
-        <v>0.97219999999999995</v>
+        <v>0.9768</v>
       </c>
       <c r="K2">
-        <v>0.4022</v>
+        <v>0.4042</v>
       </c>
       <c r="L2">
-        <v>0.97219999999999995</v>
+        <v>0.9768</v>
       </c>
       <c r="M2">
-        <v>0.40210000000000001</v>
+        <v>0.4042</v>
       </c>
       <c r="N2">
-        <v>0.97250000000000003</v>
+        <v>0.97689999999999999</v>
       </c>
       <c r="O2">
-        <v>0.40129999999999999</v>
+        <v>0.40339999999999998</v>
       </c>
       <c r="P2">
-        <v>0.97119999999999995</v>
+        <v>0.97740000000000005</v>
       </c>
       <c r="Q2">
-        <v>0.40570000000000001</v>
+        <v>0.40429999999999999</v>
       </c>
       <c r="R2">
-        <v>0.96099999999999997</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="S2">
-        <v>0.41560000000000002</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1812,58 +1812,58 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.83430000000000004</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="C3">
-        <v>0.43159999999999998</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D3">
-        <v>0.83099999999999996</v>
+        <v>0.88419999999999999</v>
       </c>
       <c r="E3">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.47260000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="I3">
         <v>0.47810000000000002</v>
       </c>
-      <c r="F3">
-        <v>0.83230000000000004</v>
-      </c>
-      <c r="G3">
-        <v>0.4849</v>
-      </c>
-      <c r="H3">
-        <v>0.74339999999999995</v>
-      </c>
-      <c r="I3">
-        <v>0.1212</v>
-      </c>
       <c r="J3">
-        <v>0.74339999999999995</v>
+        <v>0.89859999999999995</v>
       </c>
       <c r="K3">
-        <v>0.1212</v>
+        <v>0.50680000000000003</v>
       </c>
       <c r="L3">
-        <v>0.74339999999999995</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="M3">
-        <v>0.1212</v>
+        <v>0.49859999999999999</v>
       </c>
       <c r="N3">
-        <v>0.74339999999999995</v>
+        <v>0.89149999999999996</v>
       </c>
       <c r="O3">
-        <v>0.1212</v>
+        <v>0.42730000000000001</v>
       </c>
       <c r="P3">
-        <v>0.74339999999999995</v>
+        <v>0.9002</v>
       </c>
       <c r="Q3">
-        <v>0.1212</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="R3">
-        <v>0.97699999999999998</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="S3">
-        <v>0.38419999999999999</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1871,58 +1871,58 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.95579999999999998</v>
+        <v>0.88180000000000003</v>
       </c>
       <c r="C4">
-        <v>0.41199999999999998</v>
+        <v>0.48130000000000001</v>
       </c>
       <c r="D4">
-        <v>0.95799999999999996</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="E4">
-        <v>0.39510000000000001</v>
+        <v>0.37859999999999999</v>
       </c>
       <c r="F4">
-        <v>0.96209999999999996</v>
+        <v>0.94730000000000003</v>
       </c>
       <c r="G4">
-        <v>0.40439999999999998</v>
+        <v>0.43330000000000002</v>
       </c>
       <c r="H4">
-        <v>0.74339999999999995</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="I4">
-        <v>0.1212</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J4">
-        <v>0.74339999999999995</v>
+        <v>0.96840000000000004</v>
       </c>
       <c r="K4">
-        <v>0.1212</v>
+        <v>0.42249999999999999</v>
       </c>
       <c r="L4">
-        <v>0.74339999999999995</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="M4">
-        <v>0.1212</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="N4">
-        <v>0.74339999999999995</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="O4">
-        <v>0.1212</v>
+        <v>0.38779999999999998</v>
       </c>
       <c r="P4">
-        <v>0.74339999999999995</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="Q4">
-        <v>0.1212</v>
+        <v>0.38950000000000001</v>
       </c>
       <c r="R4">
-        <v>0.97660000000000002</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S4">
-        <v>0.38540000000000002</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1930,58 +1930,58 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.82889999999999997</v>
+        <v>0.9698</v>
       </c>
       <c r="C5">
-        <v>0.50419999999999998</v>
+        <v>0.4415</v>
       </c>
       <c r="D5">
-        <v>0.83450000000000002</v>
+        <v>0.90590000000000004</v>
       </c>
       <c r="E5">
-        <v>0.4854</v>
+        <v>0.5484</v>
       </c>
       <c r="F5">
-        <v>0.9708</v>
+        <v>0.97689999999999999</v>
       </c>
       <c r="G5">
-        <v>0.39300000000000002</v>
+        <v>0.42030000000000001</v>
       </c>
       <c r="H5">
-        <v>0.74339999999999995</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="I5">
-        <v>0.1212</v>
+        <v>0.46439999999999998</v>
       </c>
       <c r="J5">
-        <v>0.74339999999999995</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="K5">
-        <v>0.1212</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="L5">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M5">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N5">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O5">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P5">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q5">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R5">
-        <v>0.97660000000000002</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S5">
-        <v>0.38540000000000002</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1989,58 +1989,58 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.83599999999999997</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="C6">
-        <v>0.49070000000000003</v>
+        <v>0.5544</v>
       </c>
       <c r="D6">
-        <v>0.83879999999999999</v>
+        <v>0.89319999999999999</v>
       </c>
       <c r="E6">
-        <v>0.43930000000000002</v>
+        <v>0.47739999999999999</v>
       </c>
       <c r="F6">
-        <v>0.97260000000000002</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="G6">
-        <v>0.3901</v>
+        <v>0.45269999999999999</v>
       </c>
       <c r="H6">
-        <v>0.74339999999999995</v>
+        <v>0.98009999999999997</v>
       </c>
       <c r="I6">
-        <v>0.1212</v>
+        <v>0.45989999999999998</v>
       </c>
       <c r="J6">
-        <v>0.74339999999999995</v>
+        <v>0.97940000000000005</v>
       </c>
       <c r="K6">
-        <v>0.1212</v>
+        <v>0.38240000000000002</v>
       </c>
       <c r="L6">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M6">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N6">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O6">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P6">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R6">
-        <v>0.97660000000000002</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S6">
-        <v>0.38540000000000002</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2048,58 +2048,58 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.74339999999999995</v>
+        <v>0.873</v>
       </c>
       <c r="C7">
-        <v>0.1215</v>
+        <v>0.53510000000000002</v>
       </c>
       <c r="D7">
-        <v>0.84109999999999996</v>
+        <v>0.876</v>
       </c>
       <c r="E7">
-        <v>0.46300000000000002</v>
+        <v>0.43480000000000002</v>
       </c>
       <c r="F7">
-        <v>0.97260000000000002</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="G7">
-        <v>0.3901</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="H7">
-        <v>0.74339999999999995</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="I7">
-        <v>0.1212</v>
+        <v>0.45710000000000001</v>
       </c>
       <c r="J7">
-        <v>0.74339999999999995</v>
+        <v>0.97940000000000005</v>
       </c>
       <c r="K7">
-        <v>0.1212</v>
+        <v>0.38240000000000002</v>
       </c>
       <c r="L7">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M7">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N7">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O7">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P7">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q7">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R7">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S7">
-        <v>0.3876</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2107,58 +2107,58 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.74339999999999995</v>
+        <v>0.89270000000000005</v>
       </c>
       <c r="C8">
-        <v>0.1212</v>
+        <v>0.5605</v>
       </c>
       <c r="D8">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E8">
         <v>0.46300000000000002</v>
       </c>
       <c r="F8">
-        <v>0.97260000000000002</v>
+        <v>0.98089999999999999</v>
       </c>
       <c r="G8">
-        <v>0.3901</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="H8">
-        <v>0.74339999999999995</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="I8">
-        <v>0.1212</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="J8">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K8">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L8">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M8">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N8">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O8">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P8">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q8">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R8">
-        <v>0.97660000000000002</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S8">
-        <v>0.38540000000000002</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2166,58 +2166,58 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.74339999999999995</v>
+        <v>0.89259999999999995</v>
       </c>
       <c r="C9">
-        <v>0.1212</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="D9">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E9">
         <v>0.46300000000000002</v>
       </c>
       <c r="F9">
-        <v>0.97260000000000002</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="G9">
-        <v>0.3901</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="H9">
-        <v>0.74339999999999995</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="I9">
-        <v>0.1212</v>
+        <v>0.4577</v>
       </c>
       <c r="J9">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K9">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L9">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M9">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N9">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O9">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P9">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q9">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R9">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S9">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2225,58 +2225,58 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.74339999999999995</v>
+        <v>0.88629999999999998</v>
       </c>
       <c r="C10">
-        <v>0.1212</v>
+        <v>0.52969999999999995</v>
       </c>
       <c r="D10">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E10">
         <v>0.46300000000000002</v>
       </c>
       <c r="F10">
-        <v>0.97260000000000002</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="G10">
-        <v>0.3901</v>
+        <v>0.4481</v>
       </c>
       <c r="H10">
-        <v>0.74339999999999995</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="I10">
-        <v>0.1212</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="J10">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K10">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L10">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M10">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N10">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O10">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P10">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q10">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R10">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S10">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2284,58 +2284,58 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.74339999999999995</v>
+        <v>0.88629999999999998</v>
       </c>
       <c r="C11">
-        <v>0.1212</v>
+        <v>0.53049999999999997</v>
       </c>
       <c r="D11">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E11">
         <v>0.46300000000000002</v>
       </c>
       <c r="F11">
-        <v>0.97160000000000002</v>
+        <v>0.98089999999999999</v>
       </c>
       <c r="G11">
-        <v>0.3952</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="H11">
-        <v>0.74339999999999995</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="I11">
-        <v>0.1212</v>
+        <v>0.45739999999999997</v>
       </c>
       <c r="J11">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K11">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L11">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M11">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N11">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O11">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P11">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q11">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R11">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S11">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2343,58 +2343,58 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.74339999999999995</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="C12">
-        <v>0.1212</v>
+        <v>0.5252</v>
       </c>
       <c r="D12">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E12">
         <v>0.46300000000000002</v>
       </c>
       <c r="F12">
-        <v>0.97160000000000002</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="G12">
-        <v>0.3952</v>
+        <v>0.4481</v>
       </c>
       <c r="H12">
-        <v>0.74339999999999995</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="I12">
-        <v>0.1212</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="J12">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K12">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L12">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M12">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N12">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O12">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P12">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q12">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R12">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S12">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2402,58 +2402,58 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.74339999999999995</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="C13">
-        <v>0.1212</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="D13">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E13">
         <v>0.46300000000000002</v>
       </c>
       <c r="F13">
-        <v>0.97160000000000002</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="G13">
-        <v>0.3952</v>
+        <v>0.44819999999999999</v>
       </c>
       <c r="H13">
-        <v>0.74339999999999995</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="I13">
-        <v>0.1212</v>
+        <v>0.4592</v>
       </c>
       <c r="J13">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K13">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L13">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M13">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N13">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O13">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P13">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q13">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R13">
-        <v>0.97650000000000003</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S13">
-        <v>0.38540000000000002</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2461,58 +2461,58 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.74339999999999995</v>
+        <v>0.88759999999999994</v>
       </c>
       <c r="C14">
-        <v>0.1212</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="D14">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E14">
         <v>0.46300000000000002</v>
       </c>
       <c r="F14">
-        <v>0.97160000000000002</v>
+        <v>0.98089999999999999</v>
       </c>
       <c r="G14">
-        <v>0.3952</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="H14">
-        <v>0.74339999999999995</v>
+        <v>0.98</v>
       </c>
       <c r="I14">
-        <v>0.1212</v>
+        <v>0.4602</v>
       </c>
       <c r="J14">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K14">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L14">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M14">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N14">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O14">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P14">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q14">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R14">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S14">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2520,58 +2520,58 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.74339999999999995</v>
+        <v>0.88729999999999998</v>
       </c>
       <c r="C15">
-        <v>0.1212</v>
+        <v>0.52949999999999997</v>
       </c>
       <c r="D15">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E15">
         <v>0.46300000000000002</v>
       </c>
       <c r="F15">
-        <v>0.97160000000000002</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="G15">
-        <v>0.3952</v>
+        <v>0.44819999999999999</v>
       </c>
       <c r="H15">
-        <v>0.74339999999999995</v>
+        <v>0.98029999999999995</v>
       </c>
       <c r="I15">
-        <v>0.1212</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="J15">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K15">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L15">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M15">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N15">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O15">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P15">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q15">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R15">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S15">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2579,58 +2579,58 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.74339999999999995</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="C16">
-        <v>0.1212</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="D16">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E16">
         <v>0.46300000000000002</v>
       </c>
       <c r="F16">
-        <v>0.97260000000000002</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="G16">
-        <v>0.3901</v>
+        <v>0.44850000000000001</v>
       </c>
       <c r="H16">
-        <v>0.74339999999999995</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="I16">
-        <v>0.1212</v>
+        <v>0.45789999999999997</v>
       </c>
       <c r="J16">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K16">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L16">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M16">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N16">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O16">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P16">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q16">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R16">
-        <v>0.97650000000000003</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S16">
-        <v>0.38540000000000002</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2638,58 +2638,58 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.74339999999999995</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="C17">
-        <v>0.1212</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="D17">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E17">
         <v>0.46300000000000002</v>
       </c>
       <c r="F17">
-        <v>0.97160000000000002</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="G17">
-        <v>0.3952</v>
+        <v>0.44819999999999999</v>
       </c>
       <c r="H17">
-        <v>0.74339999999999995</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="I17">
-        <v>0.1212</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="J17">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K17">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L17">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M17">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N17">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O17">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P17">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q17">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R17">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S17">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2697,58 +2697,58 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.74339999999999995</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="C18">
-        <v>0.1212</v>
+        <v>0.52490000000000003</v>
       </c>
       <c r="D18">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E18">
         <v>0.46300000000000002</v>
       </c>
       <c r="F18">
-        <v>0.97260000000000002</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="G18">
-        <v>0.3901</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="H18">
-        <v>0.74339999999999995</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="I18">
-        <v>0.1212</v>
+        <v>0.45789999999999997</v>
       </c>
       <c r="J18">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K18">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L18">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M18">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N18">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O18">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P18">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q18">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R18">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S18">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2756,58 +2756,58 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.74339999999999995</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="C19">
-        <v>0.1212</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="D19">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E19">
         <v>0.46300000000000002</v>
       </c>
       <c r="F19">
-        <v>0.97160000000000002</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="G19">
-        <v>0.3952</v>
+        <v>0.44990000000000002</v>
       </c>
       <c r="H19">
-        <v>0.74339999999999995</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="I19">
-        <v>0.1212</v>
+        <v>0.45789999999999997</v>
       </c>
       <c r="J19">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K19">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L19">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M19">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N19">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O19">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P19">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q19">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R19">
-        <v>0.97650000000000003</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S19">
-        <v>0.38540000000000002</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2815,58 +2815,58 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.74339999999999995</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="C20">
-        <v>0.1212</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="D20">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E20">
         <v>0.46300000000000002</v>
       </c>
       <c r="F20">
-        <v>0.97260000000000002</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="G20">
-        <v>0.3901</v>
+        <v>0.45</v>
       </c>
       <c r="H20">
-        <v>0.74339999999999995</v>
+        <v>0.9798</v>
       </c>
       <c r="I20">
-        <v>0.1212</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="J20">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K20">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L20">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M20">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N20">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O20">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P20">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q20">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R20">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S20">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2874,58 +2874,58 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.74339999999999995</v>
+        <v>0.88339999999999996</v>
       </c>
       <c r="C21">
-        <v>0.1212</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D21">
-        <v>0.84109999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="E21">
         <v>0.46300000000000002</v>
       </c>
       <c r="F21">
-        <v>0.97160000000000002</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="G21">
-        <v>0.3952</v>
+        <v>0.4501</v>
       </c>
       <c r="H21">
-        <v>0.74339999999999995</v>
+        <v>0.9798</v>
       </c>
       <c r="I21">
-        <v>0.1212</v>
+        <v>0.45789999999999997</v>
       </c>
       <c r="J21">
-        <v>0.74339999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="K21">
-        <v>0.1212</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="L21">
-        <v>0.74339999999999995</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="M21">
-        <v>0.1212</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N21">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="O21">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P21">
-        <v>0.74339999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="Q21">
-        <v>0.1212</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R21">
-        <v>0.97629999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="S21">
-        <v>0.38750000000000001</v>
+        <v>0.38469999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2934,44 +2934,45 @@
       </c>
       <c r="B22">
         <f>MAX(B2:B21)</f>
-        <v>0.95579999999999998</v>
+        <v>0.9698</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22" si="0">MAX(D2:D21)</f>
-        <v>0.97170000000000001</v>
+        <v>0.97719999999999996</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22" si="1">MAX(F2:F21)</f>
-        <v>0.97260000000000002</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="2">MAX(H2:H21)</f>
-        <v>0.97150000000000003</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="3">MAX(J2:J21)</f>
-        <v>0.97219999999999995</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22" si="4">MAX(L2:L21)</f>
-        <v>0.97219999999999995</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22" si="5">MAX(N2:N21)</f>
-        <v>0.97250000000000003</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="6">MAX(P2:P21)</f>
-        <v>0.97119999999999995</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="R22">
         <f t="shared" ref="R22" si="7">MAX(R2:R21)</f>
-        <v>0.97699999999999998</v>
+        <v>0.97850000000000004</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>